--- a/superpy/stock.xlsx
+++ b/superpy/stock.xlsx
@@ -19,7 +19,7 @@
     <t>product</t>
   </si>
   <si>
-    <t>in stock</t>
+    <t>stock</t>
   </si>
   <si>
     <t>apple</t>
@@ -399,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/superpy/stock.xlsx
+++ b/superpy/stock.xlsx
@@ -399,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2">
